--- a/Zadanie 1 - Sprawozdanie/Dane.xlsx
+++ b/Zadanie 1 - Sprawozdanie/Dane.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="217">
   <si>
     <t>Places</t>
   </si>
@@ -53,9 +53,6 @@
   &lt;UseColorProfile&gt;false&lt;/UseColorProfile&gt;_x000D_
   &lt;ColorProfile&gt;ProPhoto&lt;/ColorProfile&gt;_x000D_
 &lt;/Preset&gt;</t>
-  </si>
-  <si>
-    <t>D:\Nauka\GitHub\KSR\Zadanie 1 - Sprawozdanie\Rysunki\IDF-topics.png</t>
   </si>
   <si>
     <t>Do What You Want</t>
@@ -136,9 +133,6 @@
 Get moving, moving, get your body grooving
 Beat ignorance
 Beat ignorance</t>
-  </si>
-  <si>
-    <t>Black Eyed Peas</t>
   </si>
   <si>
     <t>Union</t>
@@ -1435,9 +1429,6 @@
 So before I save someone else, I've got to save myself
 And before I blame someone else, I've got to save myself
 And before I love someone else, I've got to love myself</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
   </si>
   <si>
     <t>Nancy Mulligan</t>
@@ -2485,9 +2476,6 @@
 Why does everyone always leave me?
 Hello? Fuck you then!
 Blow it out your ass!</t>
-  </si>
-  <si>
-    <t>Eminem</t>
   </si>
   <si>
     <t>Beautiful Pain</t>
@@ -5109,9 +5097,6 @@
 What I mean</t>
   </si>
   <si>
-    <t>Twenty One Pilots</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -6039,9 +6024,6 @@
 Put 'em up, up, up up
 Up, up, up up
 Put 'em, up, up, up up (so high)</t>
-  </si>
-  <si>
-    <t>Macklemore</t>
   </si>
   <si>
     <t>My Oh My</t>
@@ -7571,9 +7553,6 @@
 (I will hold on to you)</t>
   </si>
   <si>
-    <t xml:space="preserve">Taylor Swift </t>
-  </si>
-  <si>
     <t>call it what you want</t>
   </si>
   <si>
@@ -8886,6 +8865,30 @@
 But I've got a blank space, baby
 And I'll write your name </t>
   </si>
+  <si>
+    <t xml:space="preserve">taylor swift </t>
+  </si>
+  <si>
+    <t>macklemore</t>
+  </si>
+  <si>
+    <t>twenty one pilots</t>
+  </si>
+  <si>
+    <t>eminem</t>
+  </si>
+  <si>
+    <t>ed sheeran</t>
+  </si>
+  <si>
+    <t>black eyed peas</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>D:\Nauka\GitHub\KSR\Zadanie 1 - Sprawozdanie\Rysunki\IDF-authors.png</t>
+  </si>
 </sst>
 </file>
 
@@ -8956,15 +8959,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -9194,11 +9197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="599362048"/>
-        <c:axId val="599310336"/>
+        <c:axId val="606244352"/>
+        <c:axId val="173709504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599362048"/>
+        <c:axId val="606244352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9215,7 +9218,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Ilość k-sąsiadów</a:t>
+                  <a:t>Liczba k-sąsiadów</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9227,7 +9230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599310336"/>
+        <c:crossAx val="173709504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9235,7 +9238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599310336"/>
+        <c:axId val="173709504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9265,7 +9268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599362048"/>
+        <c:crossAx val="606244352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9514,11 +9517,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="599363072"/>
-        <c:axId val="599312064"/>
+        <c:axId val="608784896"/>
+        <c:axId val="608666176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599363072"/>
+        <c:axId val="608784896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9535,7 +9538,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Ilość k-sąsiadów</a:t>
+                  <a:t>Liczba k-sąsiadów</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9547,7 +9550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599312064"/>
+        <c:crossAx val="608666176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9555,7 +9558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599312064"/>
+        <c:axId val="608666176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9585,7 +9588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599363072"/>
+        <c:crossAx val="608784896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9645,7 +9648,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDF!$B$4</c:f>
+              <c:f>TF!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9692,30 +9695,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$C$5:$C$11</c:f>
+              <c:f>TF!$C$29:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.1</c:v>
+                  <c:v>48.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.3</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.900000000000006</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.099999999999994</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9726,7 +9729,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDF!$E$4</c:f>
+              <c:f>TF!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9743,30 +9746,30 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$F$5:$F$11</c:f>
+              <c:f>TF!$F$29:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>80.2</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.4</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.6</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.3</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.6</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.1</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.599999999999994</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9777,7 +9780,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDF!$H$4</c:f>
+              <c:f>TF!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9796,30 +9799,30 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$I$5:$I$11</c:f>
+              <c:f>TF!$I$29:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9834,11 +9837,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="612438528"/>
-        <c:axId val="619566144"/>
+        <c:axId val="142463488"/>
+        <c:axId val="36999104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="612438528"/>
+        <c:axId val="142463488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9855,7 +9858,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Ilość k-sąsiadów</a:t>
+                  <a:t>Liczba k-sąsiadów</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9867,7 +9870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="619566144"/>
+        <c:crossAx val="36999104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9875,7 +9878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619566144"/>
+        <c:axId val="36999104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9905,7 +9908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="612438528"/>
+        <c:crossAx val="142463488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9965,7 +9968,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDF!$B$16</c:f>
+              <c:f>IDF!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10012,30 +10015,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$C$17:$C$23</c:f>
+              <c:f>IDF!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.4</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.2</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>82.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.1</c:v>
+                  <c:v>83.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.900000000000006</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>81.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>81.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10063,30 +10066,30 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$F$17:$F$23</c:f>
+              <c:f>IDF!$F$5:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>59.7</c:v>
+                  <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.7</c:v>
+                  <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.2</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.2</c:v>
+                  <c:v>83.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.2</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.2</c:v>
+                  <c:v>82.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>81.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10097,7 +10100,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>TF!$H$4</c:f>
+              <c:f>IDF!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10116,30 +10119,30 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$I$17:$I$23</c:f>
+              <c:f>IDF!$I$5:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.9</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10154,11 +10157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="612438016"/>
-        <c:axId val="173416448"/>
+        <c:axId val="608786432"/>
+        <c:axId val="608668480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="612438016"/>
+        <c:axId val="608786432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10175,7 +10178,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Ilość k-sąsiadów</a:t>
+                  <a:t>Liczba k-sąsiadów</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10187,7 +10190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173416448"/>
+        <c:crossAx val="608668480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10195,7 +10198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173416448"/>
+        <c:axId val="608668480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10225,7 +10228,647 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="612438016"/>
+        <c:crossAx val="608786432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDF!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Euklidesowa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TF!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDF!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDF!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uliczna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>IDF!$F$17:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TF!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czebyszwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>IDF!$I$17:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="608787968"/>
+        <c:axId val="608670784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608787968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="608670784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608670784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="608787968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDF!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Euklidesowa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TF!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IDF!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IDF!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uliczna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>IDF!$F$29:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TF!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czebyszwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>IDF!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170030592"/>
+        <c:axId val="165733504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170030592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165733504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165733504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170030592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10323,6 +10966,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>74974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10387,6 +11062,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10706,7 +11413,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -10716,39 +11423,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -10891,30 +11598,30 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
@@ -11056,8 +11763,178 @@
         <v>44</v>
       </c>
     </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>36.6</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>43.9</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>41.5</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>48.8</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>43.9</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>36.6</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>36.6</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>36.6</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>41.5</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>36.6</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>36.6</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B16:C16"/>
@@ -11075,51 +11952,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>79</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>80.2</v>
       </c>
       <c r="H5">
@@ -11133,13 +12010,13 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>82</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>82.4</v>
       </c>
       <c r="H6">
@@ -11153,13 +12030,13 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>82.1</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>82.6</v>
       </c>
       <c r="H7">
@@ -11173,13 +12050,13 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>83.3</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>83.3</v>
       </c>
       <c r="H8">
@@ -11193,13 +12070,13 @@
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>82</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>82.6</v>
       </c>
       <c r="H9">
@@ -11213,13 +12090,13 @@
       <c r="B10">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>81.900000000000006</v>
       </c>
       <c r="E10">
         <v>15</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>82.1</v>
       </c>
       <c r="H10">
@@ -11233,13 +12110,13 @@
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>81.099999999999994</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>81.599999999999994</v>
       </c>
       <c r="H11">
@@ -11250,48 +12127,48 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>63.4</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>59.7</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>14.9</v>
       </c>
     </row>
@@ -11299,13 +12176,13 @@
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>64.2</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>65.7</v>
       </c>
       <c r="H18">
@@ -11325,7 +12202,7 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>67.2</v>
       </c>
       <c r="H19">
@@ -11339,13 +12216,13 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>62.1</v>
       </c>
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>67.2</v>
       </c>
       <c r="H20">
@@ -11359,13 +12236,13 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>64.900000000000006</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>67.2</v>
       </c>
       <c r="H21">
@@ -11379,13 +12256,13 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>67.900000000000006</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>67.2</v>
       </c>
       <c r="H22">
@@ -11399,13 +12276,13 @@
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>67.099999999999994</v>
       </c>
       <c r="E23">
         <v>20</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>67.900000000000006</v>
       </c>
       <c r="H23">
@@ -11415,8 +12292,178 @@
         <v>44</v>
       </c>
     </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>19.5</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>19.5</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>29.3</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>29.3</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>19.5</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>19.5</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>14.6</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>14.6</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>14.6</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>14.6</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="H16:I16"/>
@@ -11436,1115 +12483,1115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="5" t="s">
         <v>209</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>201</v>
+        <v>209</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>199</v>
+        <v>209</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>209</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>193</v>
+        <v>209</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>191</v>
+        <v>209</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
         <v>181</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>187</v>
+        <v>209</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>185</v>
+        <v>209</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>183</v>
+        <v>209</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>180</v>
+        <v>209</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>178</v>
+        <v>210</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>210</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>174</v>
+        <v>210</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>172</v>
+        <v>210</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>170</v>
+        <v>210</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>168</v>
+        <v>210</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>166</v>
+        <v>210</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>164</v>
+        <v>210</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>162</v>
+        <v>210</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>160</v>
+        <v>210</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>158</v>
+        <v>210</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>156</v>
+        <v>210</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>154</v>
+        <v>210</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>152</v>
+        <v>210</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>148</v>
+        <v>210</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>146</v>
+        <v>210</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>143</v>
+        <v>210</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>141</v>
+        <v>211</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>139</v>
+        <v>211</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>137</v>
+        <v>211</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>135</v>
+        <v>211</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>133</v>
+        <v>211</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>131</v>
+        <v>211</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>129</v>
+        <v>211</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>127</v>
+        <v>211</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>125</v>
+        <v>211</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>123</v>
+        <v>211</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
         <v>115</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>119</v>
+        <v>211</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>117</v>
+        <v>211</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>114</v>
+        <v>211</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>112</v>
+        <v>212</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>110</v>
+        <v>212</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>108</v>
+        <v>212</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>106</v>
+        <v>212</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>104</v>
+        <v>212</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>102</v>
+        <v>212</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>100</v>
+        <v>212</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>98</v>
+        <v>212</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>96</v>
+        <v>212</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>94</v>
+        <v>212</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>92</v>
+        <v>212</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>90</v>
+        <v>212</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>88</v>
+        <v>212</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>86</v>
+        <v>212</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>84</v>
+        <v>212</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>82</v>
+        <v>212</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>80</v>
+        <v>212</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>78</v>
+        <v>212</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>76</v>
+        <v>212</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>72</v>
+        <v>212</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>69</v>
+        <v>212</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>67</v>
+        <v>213</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>65</v>
+        <v>213</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>63</v>
+        <v>213</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>61</v>
+        <v>213</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>59</v>
+        <v>213</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>57</v>
+        <v>213</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>55</v>
+        <v>213</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>53</v>
+        <v>213</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>51</v>
+        <v>213</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>49</v>
+        <v>213</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>47</v>
+        <v>213</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>45</v>
+        <v>213</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" t="s">
         <v>39</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>41</v>
+        <v>213</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>38</v>
+        <v>213</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>36</v>
+        <v>214</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>34</v>
+        <v>214</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>32</v>
+        <v>214</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>30</v>
+        <v>214</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>28</v>
+        <v>214</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>12</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>26</v>
+        <v>214</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>24</v>
+        <v>214</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>22</v>
+        <v>214</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>20</v>
+        <v>214</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>18</v>
+        <v>214</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>16</v>
+        <v>214</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
+        <v>214</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Zadanie 1 - Sprawozdanie/Dane.xlsx
+++ b/Zadanie 1 - Sprawozdanie/Dane.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
     <sheet name="TF" sheetId="1" r:id="rId2"/>
     <sheet name="IDF" sheetId="2" r:id="rId3"/>
-    <sheet name="Dodatkowe artykuły" sheetId="5" r:id="rId4"/>
+    <sheet name="Własne Cechy " sheetId="6" r:id="rId4"/>
+    <sheet name="WC - Podział Zbiorów - EKL" sheetId="8" r:id="rId5"/>
+    <sheet name="WC - Podział Zbiorów - MAN" sheetId="13" r:id="rId6"/>
+    <sheet name="Dodatkowe artykuły" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="217">
   <si>
     <t>Places</t>
   </si>
@@ -8954,7 +8957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8962,10 +8965,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9197,11 +9203,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="606244352"/>
-        <c:axId val="173709504"/>
+        <c:axId val="610041856"/>
+        <c:axId val="605979776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="606244352"/>
+        <c:axId val="610041856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9230,7 +9236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173709504"/>
+        <c:crossAx val="605979776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9238,7 +9244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173709504"/>
+        <c:axId val="605979776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9268,7 +9274,1837 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606244352"/>
+        <c:crossAx val="610041856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$4:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$H$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="612984320"/>
+        <c:axId val="612841088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="612984320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612841088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="612841088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612984320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$B$13:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$13:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$F$14:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$H$13:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$I$14:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="612985344"/>
+        <c:axId val="613400576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="612985344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="613400576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613400576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612985344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$B$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$C$23:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$22:$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$F$23:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$H$22:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$I$23:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="612986368"/>
+        <c:axId val="613402880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="612986368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="613402880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613402880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612986368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - EKL'!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$4:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$H$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="43417600"/>
+        <c:axId val="613343232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43417600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="613343232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613343232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43417600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$B$13:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$13:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$F$14:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$H$13:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$I$14:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="43420160"/>
+        <c:axId val="613348416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43420160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="613348416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613348416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43420160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$B$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$C$23:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$22:$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$F$23:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$H$22:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'WC - Podział Zbiorów - MAN'!$I$23:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="613258752"/>
+        <c:axId val="613404608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="613258752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="613404608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613404608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="613258752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9517,11 +11353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="608784896"/>
-        <c:axId val="608666176"/>
+        <c:axId val="610043392"/>
+        <c:axId val="605982080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608784896"/>
+        <c:axId val="610043392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9550,7 +11386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608666176"/>
+        <c:crossAx val="605982080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9558,7 +11394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608666176"/>
+        <c:axId val="605982080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9588,7 +11424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608784896"/>
+        <c:crossAx val="610043392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9837,11 +11673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142463488"/>
-        <c:axId val="36999104"/>
+        <c:axId val="610043904"/>
+        <c:axId val="605984384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142463488"/>
+        <c:axId val="610043904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9870,7 +11706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36999104"/>
+        <c:crossAx val="605984384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9878,7 +11714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36999104"/>
+        <c:axId val="605984384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9908,7 +11744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142463488"/>
+        <c:crossAx val="610043904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10157,11 +11993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="608786432"/>
-        <c:axId val="608668480"/>
+        <c:axId val="610045440"/>
+        <c:axId val="611319808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608786432"/>
+        <c:axId val="610045440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10190,7 +12026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608668480"/>
+        <c:crossAx val="611319808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10198,7 +12034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608668480"/>
+        <c:axId val="611319808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10228,7 +12064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608786432"/>
+        <c:crossAx val="610045440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10477,11 +12313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="608787968"/>
-        <c:axId val="608670784"/>
+        <c:axId val="611426816"/>
+        <c:axId val="611322112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608787968"/>
+        <c:axId val="611426816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10510,7 +12346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608670784"/>
+        <c:crossAx val="611322112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10518,7 +12354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608670784"/>
+        <c:axId val="611322112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10548,7 +12384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608787968"/>
+        <c:crossAx val="611426816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10797,11 +12633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170030592"/>
-        <c:axId val="165733504"/>
+        <c:axId val="611427840"/>
+        <c:axId val="611324416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170030592"/>
+        <c:axId val="611427840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10830,7 +12666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165733504"/>
+        <c:crossAx val="611324416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10838,7 +12674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165733504"/>
+        <c:axId val="611324416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10868,7 +12704,838 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170030592"/>
+        <c:crossAx val="611427840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Euklidesowa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$E$4:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uliczna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$F$5:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$H$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czebyszwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$I$5:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="610044416"/>
+        <c:axId val="611326720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="610044416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="611326720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611326720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="610044416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$B$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Euklidesowa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TF!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$E$16:$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uliczna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$F$17:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$H$16:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czebyszwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$I$17:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="611429888"/>
+        <c:axId val="612836480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="611429888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612836480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="612836480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="611429888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$B$28:$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Euklidesowa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TF!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$E$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uliczna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$F$29:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy '!$H$28:$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czebyszwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy '!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="612982784"/>
+        <c:axId val="612838784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="612982784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612838784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="612838784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612982784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11079,6 +13746,309 @@
       <xdr:colOff>52800</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>13020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60421</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117547</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449041</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>517620</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180660</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449041</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>517620</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11425,37 +14395,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -11598,30 +14568,30 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
@@ -11764,30 +14734,30 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
@@ -11954,37 +14924,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -12127,30 +15097,30 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
@@ -12293,30 +15263,30 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
@@ -12481,6 +15451,934 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="H22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="H23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="H4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>80.2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>82</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>82.8</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>81.5</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>82.6</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="E13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="H13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>57.4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>52.2</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>56.4</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>53.7</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>60.4</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>59.4</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>62.7</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="E22" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="H22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>48.8</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>36.6</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>36.6</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="H4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="E13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="H13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="H17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="E22" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="H22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="H24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="H25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="H26">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">

--- a/Zadanie 1 - Sprawozdanie/Dane.xlsx
+++ b/Zadanie 1 - Sprawozdanie/Dane.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hubertj\Desktop\s\KSR\zadanie\KSR\Zadanie 1 - Sprawozdanie\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>Places</t>
   </si>
@@ -62,11 +67,164 @@
   <si>
     <t>D:\Nauka\GitHub\KSR\Zadanie 1 - Sprawozdanie\Rysunki\TF-80-60-40-topics.png</t>
   </si>
+  <si>
+    <t>69,5</t>
+  </si>
+  <si>
+    <t>75,3</t>
+  </si>
+  <si>
+    <t>78,3</t>
+  </si>
+  <si>
+    <t>80,7</t>
+  </si>
+  <si>
+    <t>75,1</t>
+  </si>
+  <si>
+    <t>78,2</t>
+  </si>
+  <si>
+    <t>79,3</t>
+  </si>
+  <si>
+    <t>80,5</t>
+  </si>
+  <si>
+    <t>80,3</t>
+  </si>
+  <si>
+    <t>80,4</t>
+  </si>
+  <si>
+    <t>80,6</t>
+  </si>
+  <si>
+    <t>80,8</t>
+  </si>
+  <si>
+    <t>80,9</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>49,3</t>
+  </si>
+  <si>
+    <t>46,3</t>
+  </si>
+  <si>
+    <t>51,5</t>
+  </si>
+  <si>
+    <t>45,5</t>
+  </si>
+  <si>
+    <t>47,8</t>
+  </si>
+  <si>
+    <t>48,5</t>
+  </si>
+  <si>
+    <t>44,8</t>
+  </si>
+  <si>
+    <t>53,7</t>
+  </si>
+  <si>
+    <t>48,8</t>
+  </si>
+  <si>
+    <t>63,4</t>
+  </si>
+  <si>
+    <t>58,5</t>
+  </si>
+  <si>
+    <t>56,1</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>53,2</t>
+  </si>
+  <si>
+    <t>51,6</t>
+  </si>
+  <si>
+    <t>56,5</t>
+  </si>
+  <si>
+    <t>46,8</t>
+  </si>
+  <si>
+    <t>47,6</t>
+  </si>
+  <si>
+    <t>52,4</t>
+  </si>
+  <si>
+    <t>71,4</t>
+  </si>
+  <si>
+    <t>81,1</t>
+  </si>
+  <si>
+    <t>82,6</t>
+  </si>
+  <si>
+    <t>83,1</t>
+  </si>
+  <si>
+    <t>83,5</t>
+  </si>
+  <si>
+    <t>80,2</t>
+  </si>
+  <si>
+    <t>79,4</t>
+  </si>
+  <si>
+    <t>77,3</t>
+  </si>
+  <si>
+    <t>78,5</t>
+  </si>
+  <si>
+    <t>79,2</t>
+  </si>
+  <si>
+    <t>79,6</t>
+  </si>
+  <si>
+    <t>55,2</t>
+  </si>
+  <si>
+    <t>56,7</t>
+  </si>
+  <si>
+    <t>41,3</t>
+  </si>
+  <si>
+    <t>41,8</t>
+  </si>
+  <si>
+    <t>40,8</t>
+  </si>
+  <si>
+    <t>42,3</t>
+  </si>
+  <si>
+    <t>50,7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,7 +293,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,14 +301,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -248,6 +409,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A709-4504-B5E6-F0573B1B77ED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -299,6 +465,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A709-4504-B5E6-F0573B1B77ED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -352,6 +523,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A709-4504-B5E6-F0573B1B77ED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -388,6 +564,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -425,6 +602,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -438,6 +616,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -453,7 +632,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -465,9 +644,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -549,6 +728,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A06E-443A-94A9-D7FAAE40F86B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -612,6 +796,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A06E-443A-94A9-D7FAAE40F86B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -678,6 +867,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A06E-443A-94A9-D7FAAE40F86B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -782,7 +976,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -794,9 +988,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -878,6 +1072,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDD1-43A6-9D5F-2232DC6246CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -941,6 +1140,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDD1-43A6-9D5F-2232DC6246CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1007,6 +1211,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDD1-43A6-9D5F-2232DC6246CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1112,7 +1321,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1124,9 +1333,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1208,6 +1417,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBD9-40A8-9074-4ACBE42FBBA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1271,6 +1485,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBD9-40A8-9074-4ACBE42FBBA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1337,6 +1556,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBD9-40A8-9074-4ACBE42FBBA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1441,7 +1665,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1453,9 +1677,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1522,9 +1746,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4056-4505-B2EA-0EDCBEFCDA87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1573,9 +1814,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4056-4505-B2EA-0EDCBEFCDA87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1627,9 +1885,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4056-4505-B2EA-0EDCBEFCDA87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1666,6 +1941,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1703,6 +1979,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1716,6 +1993,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1731,7 +2009,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1743,9 +2021,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1808,13 +2086,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$C$14:$C$17</c:f>
+              <c:f>'WC - Podział Zbiorów - OWN'!$C$14:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9890-4457-B642-69267E76F73C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1863,9 +2155,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9890-4457-B642-69267E76F73C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1913,13 +2222,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$I$14:$I$17</c:f>
+              <c:f>'WC - Podział Zbiorów - OWN'!$I$15:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9890-4457-B642-69267E76F73C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1956,6 +2279,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1993,6 +2317,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2006,6 +2331,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2021,7 +2347,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2033,9 +2359,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2102,9 +2428,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC8F-4974-AC65-82E21CA23C7D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2153,9 +2496,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC8F-4974-AC65-82E21CA23C7D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2207,9 +2567,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC8F-4974-AC65-82E21CA23C7D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2246,6 +2623,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2283,6 +2661,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2296,6 +2675,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2311,7 +2691,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2323,9 +2703,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2423,6 +2803,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F417-4471-87B4-61874D14A481}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2474,6 +2859,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F417-4471-87B4-61874D14A481}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2527,6 +2917,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F417-4471-87B4-61874D14A481}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2563,6 +2958,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2600,6 +2996,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2613,6 +3010,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2628,7 +3026,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2640,9 +3038,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2740,6 +3138,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36F1-48E6-985E-91614810B01E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2791,6 +3194,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36F1-48E6-985E-91614810B01E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2844,6 +3252,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36F1-48E6-985E-91614810B01E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2880,6 +3293,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2917,6 +3331,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2930,6 +3345,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2945,7 +3361,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2957,9 +3373,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3057,6 +3473,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2BB-477A-B19D-F6633B022245}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3108,6 +3529,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2BB-477A-B19D-F6633B022245}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3161,6 +3587,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2BB-477A-B19D-F6633B022245}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3265,7 +3696,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3277,9 +3708,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3377,6 +3808,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6610-4443-8BFB-9EF65E106F8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3428,6 +3864,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6610-4443-8BFB-9EF65E106F8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3481,6 +3922,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6610-4443-8BFB-9EF65E106F8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3585,7 +4031,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3597,9 +4043,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3697,6 +4143,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3596-4059-8686-F4929EA14FB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3748,6 +4199,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3596-4059-8686-F4929EA14FB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3801,6 +4257,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3596-4059-8686-F4929EA14FB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3905,7 +4366,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3917,9 +4378,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3993,8 +4454,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>79.400000000000006</c:v>
@@ -4004,10 +4471,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4EB-4A8B-A137-BE03E0247009}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4065,9 +4540,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4EB-4A8B-A137-BE03E0247009}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4127,9 +4628,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F4EB-4A8B-A137-BE03E0247009}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4234,7 +4761,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4246,9 +4773,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4322,9 +4849,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACB9-4A73-8C7B-6D747BE919E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4352,9 +4905,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACB9-4A73-8C7B-6D747BE919E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4384,9 +4963,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACB9-4A73-8C7B-6D747BE919E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4491,7 +5096,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4503,9 +5108,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4579,9 +5184,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A2C-49D7-85F8-704ED95AADAE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4609,9 +5240,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A2C-49D7-85F8-704ED95AADAE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4641,9 +5298,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A2C-49D7-85F8-704ED95AADAE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4748,7 +5431,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5263,9 +5946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5303,9 +5986,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5340,7 +6023,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5375,7 +6058,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5585,7 +6268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -6091,11 +6774,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="E28:F28"/>
@@ -6103,6 +6781,11 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6114,7 +6797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -6620,11 +7303,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B14:I14"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="E28:F28"/>
@@ -6632,6 +7310,11 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6643,8 +7326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6679,41 +7362,60 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>69</v>
+      </c>
       <c r="H5">
         <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H6">
         <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>78.3</v>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H7">
         <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -6726,9 +7428,14 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="H8">
         <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -6741,9 +7448,14 @@
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>80</v>
+      </c>
       <c r="H9">
         <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -6756,22 +7468,34 @@
       <c r="E10">
         <v>15</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H10">
         <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E11">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H11">
         <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -6804,91 +7528,140 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>53</v>
+      </c>
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>47</v>
+      </c>
       <c r="H18">
         <v>3</v>
+      </c>
+      <c r="I18">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5</v>
       </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>47</v>
+      </c>
       <c r="H19">
         <v>5</v>
+      </c>
+      <c r="I19">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H20">
         <v>7</v>
+      </c>
+      <c r="I20">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H21">
         <v>10</v>
+      </c>
+      <c r="I21">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E22">
         <v>15</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H22">
         <v>15</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E23">
         <v>20</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H23">
         <v>20</v>
+      </c>
+      <c r="I23">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -6921,77 +7694,140 @@
       <c r="B29">
         <v>2</v>
       </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
       <c r="E29">
         <v>2</v>
       </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
       <c r="H29">
         <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>3</v>
       </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
       <c r="E30">
         <v>3</v>
       </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
       <c r="H30">
         <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>5</v>
       </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
       <c r="E31">
         <v>5</v>
       </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
       <c r="H31">
         <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>7</v>
       </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
       <c r="E32">
         <v>7</v>
       </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
       <c r="H32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
       <c r="E33">
         <v>10</v>
       </c>
+      <c r="F33">
+        <v>61</v>
+      </c>
       <c r="H33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>15</v>
       </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
       <c r="E34">
         <v>15</v>
       </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
       <c r="H34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>20</v>
       </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
       <c r="E35">
         <v>20</v>
       </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
       <c r="H35">
         <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7018,8 +7854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7367,7 +8203,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7402,44 +8238,80 @@
       <c r="B5">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
       <c r="E5">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5">
         <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
       <c r="E6">
         <v>7</v>
       </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
       <c r="H6">
         <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
       <c r="E7">
         <v>10</v>
       </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
       <c r="H7">
         <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
       <c r="E8">
         <v>15</v>
       </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
       <c r="H8">
         <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -7472,48 +8344,80 @@
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E14">
         <v>7</v>
       </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
       <c r="H14">
         <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E15">
         <v>10</v>
       </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
       <c r="H15">
         <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E16">
         <v>15</v>
       </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
       <c r="H16">
         <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E17">
         <v>20</v>
       </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
       <c r="H17">
         <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -7546,45 +8450,80 @@
       <c r="B23">
         <v>2</v>
       </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
       <c r="E23">
         <v>2</v>
       </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
       <c r="H23">
         <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
       <c r="E24">
         <v>3</v>
       </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
       <c r="H24">
         <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>5</v>
       </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
       <c r="E25">
         <v>5</v>
       </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
       <c r="H25">
         <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E26">
         <v>7</v>
       </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
       <c r="H26">
         <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Zadanie 1 - Sprawozdanie/Dane.xlsx
+++ b/Zadanie 1 - Sprawozdanie/Dane.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hubertj\Desktop\s\KSR\zadanie\KSR\Zadanie 1 - Sprawozdanie\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
     <sheet name="TF" sheetId="1" r:id="rId2"/>
     <sheet name="IDF" sheetId="2" r:id="rId3"/>
     <sheet name="Własne Cechy (OWN) " sheetId="6" r:id="rId4"/>
-    <sheet name="WC - Podział Zbiorów - TF" sheetId="8" r:id="rId5"/>
-    <sheet name="WC - Podział Zbiorów - OWN" sheetId="14" r:id="rId6"/>
+    <sheet name="TF - Podział Zbiorów" sheetId="8" r:id="rId5"/>
+    <sheet name="OWN - Podział Zbiorów" sheetId="14" r:id="rId6"/>
+    <sheet name="OWN - Wybrane Cechy" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>Places</t>
   </si>
@@ -65,166 +61,73 @@
     <t>Authors</t>
   </si>
   <si>
-    <t>D:\Nauka\GitHub\KSR\Zadanie 1 - Sprawozdanie\Rysunki\TF-80-60-40-topics.png</t>
+    <t>Wszystkie</t>
   </si>
   <si>
-    <t>69,5</t>
+    <t>C1</t>
   </si>
   <si>
-    <t>75,3</t>
+    <t>C2</t>
   </si>
   <si>
-    <t>78,3</t>
+    <t>C3</t>
   </si>
   <si>
-    <t>80,7</t>
+    <t>C4</t>
   </si>
   <si>
-    <t>75,1</t>
+    <t>C5</t>
   </si>
   <si>
-    <t>78,2</t>
+    <t>C6</t>
   </si>
   <si>
-    <t>79,3</t>
+    <t>C7</t>
   </si>
   <si>
-    <t>80,5</t>
+    <t>-</t>
   </si>
   <si>
-    <t>80,3</t>
+    <t>Brakujące cechy</t>
   </si>
   <si>
-    <t>80,4</t>
+    <t>Wybrance cechy</t>
   </si>
   <si>
-    <t>80,6</t>
+    <t>Zestaw cech</t>
   </si>
   <si>
-    <t>80,8</t>
+    <t>C1, C3, C6</t>
   </si>
   <si>
-    <t>80,9</t>
+    <t>C2, C4, C5</t>
   </si>
   <si>
-    <t>14,9</t>
+    <t>C1, C3, C6, C7</t>
   </si>
   <si>
-    <t>49,3</t>
+    <t>C2, C4, C5, C7</t>
   </si>
   <si>
-    <t>46,3</t>
+    <t>Bez C2, C4</t>
   </si>
   <si>
-    <t>51,5</t>
+    <t>Bez C1, C2</t>
   </si>
   <si>
-    <t>45,5</t>
+    <t>C4, C6, C7</t>
   </si>
   <si>
-    <t>47,8</t>
+    <t>C1, C3, C5</t>
   </si>
   <si>
-    <t>48,5</t>
-  </si>
-  <si>
-    <t>44,8</t>
-  </si>
-  <si>
-    <t>53,7</t>
-  </si>
-  <si>
-    <t>48,8</t>
-  </si>
-  <si>
-    <t>63,4</t>
-  </si>
-  <si>
-    <t>58,5</t>
-  </si>
-  <si>
-    <t>56,1</t>
-  </si>
-  <si>
-    <t>17,1</t>
-  </si>
-  <si>
-    <t>53,2</t>
-  </si>
-  <si>
-    <t>51,6</t>
-  </si>
-  <si>
-    <t>56,5</t>
-  </si>
-  <si>
-    <t>46,8</t>
-  </si>
-  <si>
-    <t>47,6</t>
-  </si>
-  <si>
-    <t>52,4</t>
-  </si>
-  <si>
-    <t>71,4</t>
-  </si>
-  <si>
-    <t>81,1</t>
-  </si>
-  <si>
-    <t>82,6</t>
-  </si>
-  <si>
-    <t>83,1</t>
-  </si>
-  <si>
-    <t>83,5</t>
-  </si>
-  <si>
-    <t>80,2</t>
-  </si>
-  <si>
-    <t>79,4</t>
-  </si>
-  <si>
-    <t>77,3</t>
-  </si>
-  <si>
-    <t>78,5</t>
-  </si>
-  <si>
-    <t>79,2</t>
-  </si>
-  <si>
-    <t>79,6</t>
-  </si>
-  <si>
-    <t>55,2</t>
-  </si>
-  <si>
-    <t>56,7</t>
-  </si>
-  <si>
-    <t>41,3</t>
-  </si>
-  <si>
-    <t>41,8</t>
-  </si>
-  <si>
-    <t>40,8</t>
-  </si>
-  <si>
-    <t>42,3</t>
-  </si>
-  <si>
-    <t>50,7</t>
+    <t>D:\Nauka\GitHub\KSR\Zadanie 1 - Sprawozdanie\Rysunki\OWN-set-authors.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,9 +194,10 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,9 +213,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -409,7 +313,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A709-4504-B5E6-F0573B1B77ED}"/>
             </c:ext>
@@ -465,7 +369,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A709-4504-B5E6-F0573B1B77ED}"/>
             </c:ext>
@@ -523,7 +427,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A709-4504-B5E6-F0573B1B77ED}"/>
             </c:ext>
@@ -538,11 +442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="613868544"/>
-        <c:axId val="181001536"/>
+        <c:axId val="617340928"/>
+        <c:axId val="616464384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="613868544"/>
+        <c:axId val="617340928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,7 +475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181001536"/>
+        <c:crossAx val="616464384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -579,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181001536"/>
+        <c:axId val="616464384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613868544"/>
+        <c:crossAx val="617340928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -632,7 +536,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -644,9 +548,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -669,7 +573,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$B$4:$C$4</c:f>
+              <c:f>'TF - Podział Zbiorów'!$B$4:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -688,7 +592,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$5:$E$8</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -709,7 +613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$C$5:$C$8</c:f>
+              <c:f>'TF - Podział Zbiorów'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -728,7 +632,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A06E-443A-94A9-D7FAAE40F86B}"/>
             </c:ext>
@@ -739,7 +643,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$4:$F$4</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$4:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -756,7 +660,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$5:$E$8</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -777,7 +681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$F$5:$F$8</c:f>
+              <c:f>'TF - Podział Zbiorów'!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -796,7 +700,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A06E-443A-94A9-D7FAAE40F86B}"/>
             </c:ext>
@@ -807,7 +711,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$H$4:$I$4</c:f>
+              <c:f>'TF - Podział Zbiorów'!$H$4:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -827,7 +731,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$5:$E$8</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -848,7 +752,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$I$5:$I$8</c:f>
+              <c:f>'TF - Podział Zbiorów'!$I$5:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -867,7 +771,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A06E-443A-94A9-D7FAAE40F86B}"/>
             </c:ext>
@@ -882,11 +786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="640456704"/>
-        <c:axId val="640167872"/>
+        <c:axId val="622269952"/>
+        <c:axId val="622227968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="640456704"/>
+        <c:axId val="622269952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640167872"/>
+        <c:crossAx val="622227968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -923,7 +827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640167872"/>
+        <c:axId val="622227968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640456704"/>
+        <c:crossAx val="622269952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,7 +880,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -988,9 +892,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1013,7 +917,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$B$13:$C$13</c:f>
+              <c:f>'TF - Podział Zbiorów'!$B$13:$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1032,7 +936,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$14:$E$17</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$14:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1053,7 +957,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$C$14:$C$17</c:f>
+              <c:f>'TF - Podział Zbiorów'!$C$14:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1072,7 +976,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EDD1-43A6-9D5F-2232DC6246CF}"/>
             </c:ext>
@@ -1083,7 +987,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$13:$F$13</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$13:$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1100,7 +1004,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$14:$E$17</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$14:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1121,7 +1025,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$F$14:$F$17</c:f>
+              <c:f>'TF - Podział Zbiorów'!$F$14:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1140,7 +1044,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EDD1-43A6-9D5F-2232DC6246CF}"/>
             </c:ext>
@@ -1151,7 +1055,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$H$13:$I$13</c:f>
+              <c:f>'TF - Podział Zbiorów'!$H$13:$I$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1171,7 +1075,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$14:$E$17</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$14:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1192,7 +1096,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$I$14:$I$17</c:f>
+              <c:f>'TF - Podział Zbiorów'!$I$14:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1211,7 +1115,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EDD1-43A6-9D5F-2232DC6246CF}"/>
             </c:ext>
@@ -1226,11 +1130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="640458240"/>
-        <c:axId val="640170176"/>
+        <c:axId val="622270976"/>
+        <c:axId val="622230272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="640458240"/>
+        <c:axId val="622270976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640170176"/>
+        <c:crossAx val="622230272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1267,7 +1171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640170176"/>
+        <c:axId val="622230272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="45"/>
@@ -1298,7 +1202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640458240"/>
+        <c:crossAx val="622270976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1321,7 +1225,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1333,9 +1237,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1358,7 +1262,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$B$22:$C$22</c:f>
+              <c:f>'TF - Podział Zbiorów'!$B$22:$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1377,7 +1281,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$H$23:$H$26</c:f>
+              <c:f>'TF - Podział Zbiorów'!$H$23:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1398,7 +1302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$C$23:$C$26</c:f>
+              <c:f>'TF - Podział Zbiorów'!$C$23:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1417,7 +1321,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBD9-40A8-9074-4ACBE42FBBA3}"/>
             </c:ext>
@@ -1428,7 +1332,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$E$22:$F$22</c:f>
+              <c:f>'TF - Podział Zbiorów'!$E$22:$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1445,7 +1349,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$H$23:$H$26</c:f>
+              <c:f>'TF - Podział Zbiorów'!$H$23:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1466,7 +1370,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$F$23:$F$26</c:f>
+              <c:f>'TF - Podział Zbiorów'!$F$23:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1485,7 +1389,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FBD9-40A8-9074-4ACBE42FBBA3}"/>
             </c:ext>
@@ -1496,7 +1400,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$H$22:$I$22</c:f>
+              <c:f>'TF - Podział Zbiorów'!$H$22:$I$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1516,7 +1420,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$H$23:$H$26</c:f>
+              <c:f>'TF - Podział Zbiorów'!$H$23:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1537,7 +1441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - TF'!$I$23:$I$26</c:f>
+              <c:f>'TF - Podział Zbiorów'!$I$23:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1556,7 +1460,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FBD9-40A8-9074-4ACBE42FBBA3}"/>
             </c:ext>
@@ -1571,11 +1475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="641138688"/>
-        <c:axId val="640795200"/>
+        <c:axId val="622271488"/>
+        <c:axId val="622838912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="641138688"/>
+        <c:axId val="622271488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640795200"/>
+        <c:crossAx val="622838912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1612,7 +1516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640795200"/>
+        <c:axId val="622838912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641138688"/>
+        <c:crossAx val="622271488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1665,7 +1569,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1677,9 +1581,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1702,7 +1606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$B$4:$C$4</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$B$4:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1721,47 +1625,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$5:$E$8</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$C$5:$C$8</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>83.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>83.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4056-4505-B2EA-0EDCBEFCDA87}"/>
             </c:ext>
@@ -1772,7 +1676,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$4:$F$4</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$4:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1789,47 +1693,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$5:$E$8</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$F$5:$F$8</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>79.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>80.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4056-4505-B2EA-0EDCBEFCDA87}"/>
             </c:ext>
@@ -1840,7 +1744,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$H$4:$I$4</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$H$4:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1860,47 +1764,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$5:$E$8</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$I$5:$I$8</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$I$5:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>79.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>79.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>79.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4056-4505-B2EA-0EDCBEFCDA87}"/>
             </c:ext>
@@ -1915,11 +1819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="641140224"/>
-        <c:axId val="640797504"/>
+        <c:axId val="622592000"/>
+        <c:axId val="622841216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="641140224"/>
+        <c:axId val="622592000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +1852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640797504"/>
+        <c:crossAx val="622841216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1956,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640797504"/>
+        <c:axId val="622841216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +1890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641140224"/>
+        <c:crossAx val="622592000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,7 +1913,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2021,9 +1925,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2046,7 +1950,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$B$13:$C$13</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$B$13:$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2065,44 +1969,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$14:$E$17</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$14:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$C$14:$C$16</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$C$14:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>55.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9890-4457-B642-69267E76F73C}"/>
             </c:ext>
@@ -2113,7 +2020,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$13:$F$13</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$13:$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2130,47 +2037,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$14:$E$17</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$14:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$F$14:$F$17</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$F$14:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>49.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9890-4457-B642-69267E76F73C}"/>
             </c:ext>
@@ -2181,7 +2088,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$H$13:$I$13</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$H$13:$I$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2201,44 +2108,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$14:$E$17</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$14:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$I$15:$I$17</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$I$14:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>43.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9890-4457-B642-69267E76F73C}"/>
             </c:ext>
@@ -2253,11 +2163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="641141248"/>
-        <c:axId val="640799808"/>
+        <c:axId val="622593536"/>
+        <c:axId val="622843520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="641141248"/>
+        <c:axId val="622593536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640799808"/>
+        <c:crossAx val="622843520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2294,7 +2204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640799808"/>
+        <c:axId val="622843520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641141248"/>
+        <c:crossAx val="622593536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2347,7 +2257,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2359,9 +2269,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2384,7 +2294,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$B$22:$C$22</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$B$22:$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2403,47 +2313,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$H$23:$H$26</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$H$23:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$C$23:$C$26</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$C$23:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>71.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>66.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>71.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>71.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC8F-4974-AC65-82E21CA23C7D}"/>
             </c:ext>
@@ -2454,7 +2364,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$E$22:$F$22</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$E$22:$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2471,47 +2381,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$H$23:$H$26</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$H$23:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$F$23:$F$26</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$F$23:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>63.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>63.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>53.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC8F-4974-AC65-82E21CA23C7D}"/>
             </c:ext>
@@ -2522,7 +2432,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$H$22:$I$22</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$H$22:$I$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2542,47 +2452,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$H$23:$H$26</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$H$23:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'WC - Podział Zbiorów - OWN'!$I$23:$I$26</c:f>
+              <c:f>'OWN - Podział Zbiorów'!$I$23:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>46.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>33.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FC8F-4974-AC65-82E21CA23C7D}"/>
             </c:ext>
@@ -2597,11 +2507,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="641141760"/>
-        <c:axId val="640802112"/>
+        <c:axId val="622594048"/>
+        <c:axId val="623304704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="641141760"/>
+        <c:axId val="622594048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +2540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640802112"/>
+        <c:crossAx val="623304704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2638,7 +2548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640802112"/>
+        <c:axId val="623304704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641141760"/>
+        <c:crossAx val="622594048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2691,7 +2601,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2702,10 +2612,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2716,7 +2626,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2728,198 +2638,91 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TF!$B$16</c:f>
+              <c:f>'OWN - Wybrane Cechy'!$B$4:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Euklidesowa</c:v>
+                  <c:v>Brakujące cechy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>TF!$E$5:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$B$5:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>C1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>C2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>C3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>C4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>C5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>C6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TF!$C$17:$C$23</c:f>
+              <c:f>'OWN - Wybrane Cechy'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>53.7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62.7</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.2</c:v>
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F417-4471-87B4-61874D14A481}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TF!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uliczna</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>TF!$F$17:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F417-4471-87B4-61874D14A481}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TF!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Czebyszwa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>TF!$I$17:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F417-4471-87B4-61874D14A481}"/>
+              <c16:uniqueId val="{00000000-4056-4505-B2EA-0EDCBEFCDA87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2932,11 +2735,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="613869568"/>
-        <c:axId val="613713600"/>
+        <c:axId val="623367680"/>
+        <c:axId val="623307008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="613869568"/>
+        <c:axId val="623367680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2756,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Liczba k-sąsiadów</a:t>
+                  <a:t>Brakujące cechy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2965,7 +2768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613713600"/>
+        <c:crossAx val="623307008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2973,7 +2776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613713600"/>
+        <c:axId val="623307008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,16 +2806,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613869568"/>
+        <c:crossAx val="623367680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3026,7 +2824,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3037,10 +2835,675 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brakujące cechy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$E$5:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Wszystkie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OWN - Wybrane Cechy'!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4056-4505-B2EA-0EDCBEFCDA87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="181901824"/>
+        <c:axId val="149398080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="181901824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wybrance cechy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149398080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149398080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181901824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brakujące cechy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$H$5:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Wszystkie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C1, C3, C6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C2, C4, C5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C1, C3, C6, C7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C2, C4, C5, C7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bez C1, C2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bez C2, C4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OWN - Wybrane Cechy'!$I$5:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4056-4505-B2EA-0EDCBEFCDA87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="602246144"/>
+        <c:axId val="177562752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="602246144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wybrance cechy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177562752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177562752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="602246144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$B$17:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brakujące cechy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$B$18:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OWN - Wybrane Cechy'!$C$18:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4056-4505-B2EA-0EDCBEFCDA87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="176814080"/>
+        <c:axId val="601933504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="176814080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Brakujące cechy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="601933504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="601933504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176814080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3110,37 +3573,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TF!$C$29:$C$35</c:f>
+              <c:f>TF!$C$17:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43.9</c:v>
+                  <c:v>53.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.9</c:v>
+                  <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.6</c:v>
+                  <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.8</c:v>
+                  <c:v>53.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.4</c:v>
+                  <c:v>60.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.3</c:v>
+                  <c:v>62.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.7</c:v>
+                  <c:v>61.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36F1-48E6-985E-91614810B01E}"/>
+              <c16:uniqueId val="{00000000-F417-4471-87B4-61874D14A481}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3166,37 +3629,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TF!$F$29:$F$35</c:f>
+              <c:f>TF!$F$17:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>36.6</c:v>
+                  <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.6</c:v>
+                  <c:v>61.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.7</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.4</c:v>
+                  <c:v>64.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.3</c:v>
+                  <c:v>64.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.3</c:v>
+                  <c:v>63.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36F1-48E6-985E-91614810B01E}"/>
+              <c16:uniqueId val="{00000001-F417-4471-87B4-61874D14A481}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3224,37 +3687,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TF!$I$29:$I$35</c:f>
+              <c:f>TF!$I$17:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>14.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-36F1-48E6-985E-91614810B01E}"/>
+              <c16:uniqueId val="{00000002-F417-4471-87B4-61874D14A481}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3267,11 +3730,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="613870080"/>
-        <c:axId val="613715904"/>
+        <c:axId val="617342464"/>
+        <c:axId val="616466688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="613870080"/>
+        <c:axId val="617342464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,7 +3763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613715904"/>
+        <c:crossAx val="616466688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3308,7 +3771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613715904"/>
+        <c:axId val="616466688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,7 +3801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613870080"/>
+        <c:crossAx val="617342464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3361,7 +3824,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3372,10 +3835,451 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brakujące cechy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$E$18:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Wszystkie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OWN - Wybrane Cechy'!$F$18:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4056-4505-B2EA-0EDCBEFCDA87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="180347904"/>
+        <c:axId val="601937536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180347904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wybrance cechy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="601937536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="601937536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180347904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brakujące cechy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OWN - Wybrane Cechy'!$H$18:$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Wszystkie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C4, C6, C7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C1, C3, C5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C2, C4, C5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C2, C4, C5, C7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bez C1, C2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bez C2, C4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OWN - Wybrane Cechy'!$I$18:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4056-4505-B2EA-0EDCBEFCDA87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="176815616"/>
+        <c:axId val="623309312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="176815616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wybrance cechy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="623309312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623309312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176815616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3398,7 +4302,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDF!$B$4</c:f>
+              <c:f>TF!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3445,37 +4349,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$C$5:$C$11</c:f>
+              <c:f>TF!$C$29:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.1</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.3</c:v>
+                  <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82</c:v>
+                  <c:v>24.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.900000000000006</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.099999999999994</c:v>
+                  <c:v>31.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2BB-477A-B19D-F6633B022245}"/>
+              <c16:uniqueId val="{00000000-36F1-48E6-985E-91614810B01E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3484,7 +4388,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDF!$E$4</c:f>
+              <c:f>TF!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3501,37 +4405,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$F$5:$F$11</c:f>
+              <c:f>TF!$F$29:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>80.2</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.4</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.6</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.3</c:v>
+                  <c:v>31.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.6</c:v>
+                  <c:v>24.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.1</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.599999999999994</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2BB-477A-B19D-F6633B022245}"/>
+              <c16:uniqueId val="{00000001-36F1-48E6-985E-91614810B01E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3540,7 +4444,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDF!$H$4</c:f>
+              <c:f>TF!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3559,37 +4463,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$I$5:$I$11</c:f>
+              <c:f>TF!$I$29:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A2BB-477A-B19D-F6633B022245}"/>
+              <c16:uniqueId val="{00000002-36F1-48E6-985E-91614810B01E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3602,11 +4506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616267776"/>
-        <c:axId val="613718208"/>
+        <c:axId val="617342976"/>
+        <c:axId val="616468992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="616267776"/>
+        <c:axId val="617342976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +4539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613718208"/>
+        <c:crossAx val="616468992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3643,7 +4547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613718208"/>
+        <c:axId val="616468992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +4577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616267776"/>
+        <c:crossAx val="617342976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3696,7 +4600,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3707,10 +4611,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3733,7 +4637,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IDF!$B$16</c:f>
+              <c:f>IDF!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3780,37 +4684,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$C$17:$C$23</c:f>
+              <c:f>IDF!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.4</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.2</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>82.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.1</c:v>
+                  <c:v>83.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.900000000000006</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>81.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>81.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6610-4443-8BFB-9EF65E106F8D}"/>
+              <c16:uniqueId val="{00000000-A2BB-477A-B19D-F6633B022245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3836,37 +4740,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$F$17:$F$23</c:f>
+              <c:f>IDF!$F$5:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>59.7</c:v>
+                  <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.7</c:v>
+                  <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.2</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.2</c:v>
+                  <c:v>83.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.2</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.2</c:v>
+                  <c:v>82.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>81.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6610-4443-8BFB-9EF65E106F8D}"/>
+              <c16:uniqueId val="{00000001-A2BB-477A-B19D-F6633B022245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3875,7 +4779,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>TF!$H$4</c:f>
+              <c:f>IDF!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3894,37 +4798,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$I$17:$I$23</c:f>
+              <c:f>IDF!$I$5:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.9</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6610-4443-8BFB-9EF65E106F8D}"/>
+              <c16:uniqueId val="{00000002-A2BB-477A-B19D-F6633B022245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3937,11 +4841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616269312"/>
-        <c:axId val="616170048"/>
+        <c:axId val="617344512"/>
+        <c:axId val="616471296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="616269312"/>
+        <c:axId val="617344512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +4874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616170048"/>
+        <c:crossAx val="616471296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3978,7 +4882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616170048"/>
+        <c:axId val="616471296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +4912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616269312"/>
+        <c:crossAx val="617344512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4031,7 +4935,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4042,10 +4946,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4115,37 +5019,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$C$29:$C$35</c:f>
+              <c:f>IDF!$C$17:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>63.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.5</c:v>
+                  <c:v>64.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.3</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>62.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.8</c:v>
+                  <c:v>64.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.4</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3596-4059-8686-F4929EA14FB3}"/>
+              <c16:uniqueId val="{00000000-6610-4443-8BFB-9EF65E106F8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4171,37 +5075,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$F$29:$F$35</c:f>
+              <c:f>IDF!$F$17:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>59.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.5</c:v>
+                  <c:v>65.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.3</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.8</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.4</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3596-4059-8686-F4929EA14FB3}"/>
+              <c16:uniqueId val="{00000001-6610-4443-8BFB-9EF65E106F8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4229,37 +5133,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>IDF!$I$29:$I$35</c:f>
+              <c:f>IDF!$I$17:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>14.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3596-4059-8686-F4929EA14FB3}"/>
+              <c16:uniqueId val="{00000002-6610-4443-8BFB-9EF65E106F8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4272,11 +5176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616269824"/>
-        <c:axId val="616172352"/>
+        <c:axId val="617488896"/>
+        <c:axId val="617432192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="616269824"/>
+        <c:axId val="617488896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4305,7 +5209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616172352"/>
+        <c:crossAx val="617432192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4313,7 +5217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616172352"/>
+        <c:axId val="617432192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4343,7 +5247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616269824"/>
+        <c:crossAx val="617488896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4366,7 +5270,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4377,10 +5281,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4403,7 +5307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$B$4:$C$4</c:f>
+              <c:f>IDF!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4420,7 +5324,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$E$5:$E$11</c:f>
+              <c:f>TF!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4450,37 +5354,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$C$5:$C$11</c:f>
+              <c:f>IDF!$C$29:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.400000000000006</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.2</c:v>
+                  <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.5</c:v>
+                  <c:v>24.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F4EB-4A8B-A137-BE03E0247009}"/>
+              <c16:uniqueId val="{00000000-3596-4059-8686-F4929EA14FB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4489,7 +5393,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$E$4:$F$4</c:f>
+              <c:f>IDF!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4504,69 +5408,39 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$E$5:$E$11</c:f>
+              <c:f>IDF!$F$29:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>24.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$F$5:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F4EB-4A8B-A137-BE03E0247009}"/>
+              <c16:uniqueId val="{00000001-3596-4059-8686-F4929EA14FB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4575,7 +5449,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$H$4:$I$4</c:f>
+              <c:f>TF!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4592,69 +5466,39 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$E$5:$E$11</c:f>
+              <c:f>IDF!$I$29:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$I$5:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F4EB-4A8B-A137-BE03E0247009}"/>
+              <c16:uniqueId val="{00000002-3596-4059-8686-F4929EA14FB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4667,11 +5511,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616271360"/>
-        <c:axId val="616174656"/>
+        <c:axId val="617489408"/>
+        <c:axId val="617434496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="616271360"/>
+        <c:axId val="617489408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4700,7 +5544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616174656"/>
+        <c:crossAx val="617434496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4708,7 +5552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616174656"/>
+        <c:axId val="617434496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4738,7 +5582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616271360"/>
+        <c:crossAx val="617489408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4761,7 +5605,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4772,10 +5616,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4798,7 +5642,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$B$16:$C$16</c:f>
+              <c:f>'Własne Cechy (OWN) '!$B$4:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4815,7 +5659,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>TF!$E$5:$E$11</c:f>
+              <c:f>'Własne Cechy (OWN) '!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4845,37 +5689,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$C$17:$C$23</c:f>
+              <c:f>'Własne Cechy (OWN) '!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>75.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>78.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>79.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>80.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACB9-4A73-8C7B-6D747BE919E5}"/>
+              <c16:uniqueId val="{00000000-F4EB-4A8B-A137-BE03E0247009}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4884,7 +5728,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$E$16:$F$16</c:f>
+              <c:f>'Własne Cechy (OWN) '!$E$4:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4899,39 +5743,69 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$F$17:$F$23</c:f>
+              <c:f>'Własne Cechy (OWN) '!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy (OWN) '!$F$5:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ACB9-4A73-8C7B-6D747BE919E5}"/>
+              <c16:uniqueId val="{00000001-F4EB-4A8B-A137-BE03E0247009}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4940,7 +5814,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$H$16:$I$16</c:f>
+              <c:f>'Własne Cechy (OWN) '!$H$4:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4957,39 +5831,69 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$I$17:$I$23</c:f>
+              <c:f>'Własne Cechy (OWN) '!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy (OWN) '!$I$5:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ACB9-4A73-8C7B-6D747BE919E5}"/>
+              <c16:uniqueId val="{00000002-F4EB-4A8B-A137-BE03E0247009}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5002,11 +5906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="640455168"/>
-        <c:axId val="616176960"/>
+        <c:axId val="617490432"/>
+        <c:axId val="617436800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="640455168"/>
+        <c:axId val="617490432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5035,7 +5939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616176960"/>
+        <c:crossAx val="617436800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5043,7 +5947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616176960"/>
+        <c:axId val="617436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5073,7 +5977,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640455168"/>
+        <c:crossAx val="617490432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5096,7 +6000,7 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5107,10 +6011,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5133,7 +6037,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$B$28:$C$28</c:f>
+              <c:f>'Własne Cechy (OWN) '!$B$16:$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5180,37 +6084,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$C$29:$C$35</c:f>
+              <c:f>'Własne Cechy (OWN) '!$C$17:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>47.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>49.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>47.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>44.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A2C-49D7-85F8-704ED95AADAE}"/>
+              <c16:uniqueId val="{00000000-ACB9-4A73-8C7B-6D747BE919E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5219,7 +6123,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$E$28:$F$28</c:f>
+              <c:f>'Własne Cechy (OWN) '!$E$16:$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5236,37 +6140,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$F$29:$F$35</c:f>
+              <c:f>'Własne Cechy (OWN) '!$F$17:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>49.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>46.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8A2C-49D7-85F8-704ED95AADAE}"/>
+              <c16:uniqueId val="{00000001-ACB9-4A73-8C7B-6D747BE919E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5275,7 +6179,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Własne Cechy (OWN) '!$H$28:$I$28</c:f>
+              <c:f>'Własne Cechy (OWN) '!$H$16:$I$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5294,37 +6198,37 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Własne Cechy (OWN) '!$I$29:$I$35</c:f>
+              <c:f>'Własne Cechy (OWN) '!$I$17:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8A2C-49D7-85F8-704ED95AADAE}"/>
+              <c16:uniqueId val="{00000002-ACB9-4A73-8C7B-6D747BE919E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5337,11 +6241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="640455680"/>
-        <c:axId val="640165568"/>
+        <c:axId val="617491968"/>
+        <c:axId val="622223360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="640455680"/>
+        <c:axId val="617491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,7 +6274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640165568"/>
+        <c:crossAx val="622223360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5378,7 +6282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="640165568"/>
+        <c:axId val="622223360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5408,7 +6312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640455680"/>
+        <c:crossAx val="617491968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5431,7 +6335,342 @@
           <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy (OWN) '!$B$28:$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Euklidesowa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TF!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy (OWN) '!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A2C-49D7-85F8-704ED95AADAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy (OWN) '!$E$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uliczna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy (OWN) '!$F$29:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A2C-49D7-85F8-704ED95AADAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Własne Cechy (OWN) '!$H$28:$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Czebyszwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Własne Cechy (OWN) '!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A2C-49D7-85F8-704ED95AADAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="622268416"/>
+        <c:axId val="622225664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="622268416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="622225664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622225664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>SKuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="622268416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 12" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5945,10 +7184,207 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502921</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>555721</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>173040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>570960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>98700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>555720</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>159481</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>174720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83460</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>159480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>169140</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Wykres 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5986,9 +7422,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6023,7 +7459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6058,7 +7494,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6256,7 +7692,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6797,8 +8233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7326,8 +8762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7362,8 +8798,8 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="2">
+        <v>69.5</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -7374,48 +8810,48 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
+      <c r="I5" s="2">
+        <v>80.3</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+      <c r="C6" s="2">
+        <v>75.3</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
+      <c r="F6" s="2">
+        <v>75.099999999999994</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
-        <v>20</v>
+      <c r="I6" s="2">
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7" s="2">
+        <v>78.3</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
+      <c r="F7" s="2">
+        <v>78.2</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>18</v>
+      <c r="I7" s="2">
+        <v>80.5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -7428,14 +8864,14 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
+      <c r="F8" s="2">
+        <v>79.3</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
+      <c r="I8" s="2">
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -7454,8 +8890,8 @@
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
+      <c r="I9" s="2">
+        <v>80.7</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -7468,34 +8904,34 @@
       <c r="E10">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
+      <c r="F10" s="2">
+        <v>80.5</v>
       </c>
       <c r="H10">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
-        <v>22</v>
+      <c r="I10" s="2">
+        <v>80.8</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
+      <c r="C11" s="2">
+        <v>80.7</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
+      <c r="F11" s="2">
+        <v>80.7</v>
       </c>
       <c r="H11">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
-        <v>23</v>
+      <c r="I11" s="2">
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -7528,20 +8964,20 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
+      <c r="C17" s="2">
+        <v>47.8</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>25</v>
+      <c r="F17" s="2">
+        <v>49.3</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>24</v>
+      <c r="I17" s="2">
+        <v>14.9</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -7588,14 +9024,14 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
+      <c r="C20" s="2">
+        <v>48.5</v>
       </c>
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
+      <c r="F20" s="2">
+        <v>46.3</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -7608,14 +9044,14 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
+      <c r="C21" s="2">
+        <v>49.3</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>27</v>
+      <c r="F21" s="2">
+        <v>51.5</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -7628,14 +9064,14 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>29</v>
+      <c r="C22" s="2">
+        <v>47.8</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
+      <c r="F22" s="2">
+        <v>45.5</v>
       </c>
       <c r="H22">
         <v>15</v>
@@ -7648,14 +9084,14 @@
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
+      <c r="C23" s="2">
+        <v>44.8</v>
       </c>
       <c r="E23">
         <v>20</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>28</v>
+      <c r="F23" s="2">
+        <v>45.5</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -7694,88 +9130,88 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>31</v>
+      <c r="C29" s="2">
+        <v>44.8</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
-        <v>36</v>
+      <c r="F29" s="2">
+        <v>56.1</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="I29" t="s">
-        <v>37</v>
+      <c r="I29" s="2">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>32</v>
+      <c r="C30" s="2">
+        <v>53.7</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
-        <v>36</v>
+      <c r="F30" s="2">
+        <v>56.1</v>
       </c>
       <c r="H30">
         <v>3</v>
       </c>
-      <c r="I30" t="s">
-        <v>37</v>
+      <c r="I30" s="2">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
+      <c r="C31" s="2">
+        <v>48.8</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
-        <v>33</v>
+      <c r="F31" s="2">
+        <v>48.8</v>
       </c>
       <c r="H31">
         <v>5</v>
       </c>
-      <c r="I31" t="s">
-        <v>37</v>
+      <c r="I31" s="2">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" t="s">
-        <v>34</v>
+      <c r="C32" s="2">
+        <v>63.4</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
-      <c r="F32" t="s">
-        <v>35</v>
+      <c r="F32" s="2">
+        <v>58.5</v>
       </c>
       <c r="H32">
         <v>7</v>
       </c>
-      <c r="I32" t="s">
-        <v>37</v>
+      <c r="I32" s="2">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
+      <c r="C33" s="2">
+        <v>63.4</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -7786,48 +9222,48 @@
       <c r="H33">
         <v>10</v>
       </c>
-      <c r="I33" t="s">
-        <v>37</v>
+      <c r="I33" s="2">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
-        <v>35</v>
+      <c r="C34" s="2">
+        <v>58.5</v>
       </c>
       <c r="E34">
         <v>15</v>
       </c>
-      <c r="F34" t="s">
-        <v>35</v>
+      <c r="F34" s="2">
+        <v>58.5</v>
       </c>
       <c r="H34">
         <v>15</v>
       </c>
-      <c r="I34" t="s">
-        <v>37</v>
+      <c r="I34" s="2">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>20</v>
       </c>
-      <c r="C35" t="s">
-        <v>32</v>
+      <c r="C35" s="2">
+        <v>53.7</v>
       </c>
       <c r="E35">
         <v>20</v>
       </c>
-      <c r="F35" t="s">
-        <v>36</v>
+      <c r="F35" s="2">
+        <v>56.1</v>
       </c>
       <c r="H35">
         <v>20</v>
       </c>
-      <c r="I35" t="s">
-        <v>37</v>
+      <c r="I35" s="2">
+        <v>17.100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7855,7 +9291,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8203,7 +9639,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8236,82 +9672,82 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>82.6</v>
       </c>
       <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>79.400000000000006</v>
       </c>
       <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>78.5</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>83.1</v>
       </c>
       <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80.2</v>
       </c>
       <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>79.2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>83.5</v>
       </c>
       <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>80.5</v>
       </c>
       <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>83.3</v>
       </c>
       <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>80.7</v>
       </c>
       <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <v>79.7</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -8342,82 +9778,82 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>55.2</v>
       </c>
       <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>53</v>
       </c>
       <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>43.3</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>55.2</v>
       </c>
       <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>47</v>
       </c>
       <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>43.8</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>55.2</v>
       </c>
       <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>48.5</v>
       </c>
       <c r="H16">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>42.3</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>55.2</v>
       </c>
       <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>49.3</v>
       </c>
       <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="I17" s="2">
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -8448,82 +9884,82 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>71.400000000000006</v>
       </c>
       <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>63.4</v>
       </c>
       <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>46.8</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <v>66.7</v>
       </c>
       <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>63.4</v>
       </c>
       <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>48.4</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>71.400000000000006</v>
       </c>
       <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="F25" s="2">
+        <v>58.5</v>
       </c>
       <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
+        <v>71.400000000000006</v>
       </c>
       <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <v>53.7</v>
       </c>
       <c r="H26">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="I26" s="2">
+        <v>33.9</v>
       </c>
     </row>
   </sheetData>
@@ -8544,4 +9980,604 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>59.7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>50.7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>56.7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>50.7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>53.7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>56.7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="H17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
+        <v>57.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2">
+        <v>52.4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2">
+        <v>57.1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="2">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="2">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>47.6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="2">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>